--- a/Data Prep/BalquhidderSept2024.xlsx
+++ b/Data Prep/BalquhidderSept2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/Local Working Docs/GitHub/Home-Solar-Usage-Analysis/Data Prep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuartgow/GitHub/Home-Solar-Usage-Analysis/Data Prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976A4E50-14A5-0E40-9B6F-F6FD2CC61534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A3C40D-60AA-1A44-BF54-21355857E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_list" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result_list!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>UVI</t>
   </si>
@@ -657,6 +670,9 @@
   </si>
   <si>
     <t>SolarIrradiance</t>
+  </si>
+  <si>
+    <t>Irradiance - w/m2</t>
   </si>
 </sst>
 </file>
@@ -666,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -686,6 +702,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -829,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,6 +896,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,13 +1208,13 @@
   <sheetPr>
     <tabColor rgb="FF0094FF"/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1199,7 +1227,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row r="1" spans="1:10" ht="34" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>181</v>
       </c>
@@ -1218,8 +1246,11 @@
       <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="I1" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1269,11 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1258,8 +1292,12 @@
       <c r="F3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="I3" s="15">
+        <f>(E3+E2)*4</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1278,8 +1316,12 @@
       <c r="F4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="I4" s="15">
+        <f t="shared" ref="I4:I31" si="0">(E4+E3)*4</f>
+        <v>986.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1298,8 +1340,12 @@
       <c r="F5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>884.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1318,8 +1364,12 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>476.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1338,8 +1388,20 @@
       <c r="F7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="H7" s="15">
+        <f>SUM(E2:E7)</f>
+        <v>365.90000000000003</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>135.19999999999999</v>
+      </c>
+      <c r="J7">
+        <f>SUM(I2:I7)</f>
+        <v>2927.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1358,8 +1420,12 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1378,8 +1444,12 @@
       <c r="F9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>145.19999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1398,8 +1468,12 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>802.40000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1418,8 +1492,12 @@
       <c r="F11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>1005.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1438,8 +1516,12 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>539.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1458,8 +1540,16 @@
       <c r="F13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>190.8</v>
+      </c>
+      <c r="J13">
+        <f>SUM(I8:I13)</f>
+        <v>2683.2000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1478,8 +1568,12 @@
       <c r="F14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1498,8 +1592,12 @@
       <c r="F15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>595.20000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1518,8 +1616,12 @@
       <c r="F16" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1">
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>1615.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1538,8 +1640,12 @@
       <c r="F17" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1">
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>3312.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1558,8 +1664,12 @@
       <c r="F18" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1">
+      <c r="I18" s="15">
+        <f t="shared" si="0"/>
+        <v>3771.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -1578,8 +1688,16 @@
       <c r="F19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1">
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>1479.6</v>
+      </c>
+      <c r="J19">
+        <f>SUM(I14:I19)</f>
+        <v>10774.400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1598,8 +1716,12 @@
       <c r="F20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1">
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -1618,8 +1740,12 @@
       <c r="F21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1">
+      <c r="I21" s="15">
+        <f t="shared" si="0"/>
+        <v>475.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1638,8 +1764,12 @@
       <c r="F22" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1">
+      <c r="I22" s="15">
+        <f t="shared" si="0"/>
+        <v>3027.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1658,8 +1788,12 @@
       <c r="F23" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1">
+      <c r="I23" s="15">
+        <f t="shared" si="0"/>
+        <v>5724.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1678,8 +1812,12 @@
       <c r="F24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1">
+      <c r="I24" s="15">
+        <f t="shared" si="0"/>
+        <v>3862.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1698,8 +1836,16 @@
       <c r="F25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1">
+      <c r="I25" s="15">
+        <f t="shared" si="0"/>
+        <v>690.4</v>
+      </c>
+      <c r="J25">
+        <f>SUM(I20:I25)</f>
+        <v>13779.999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1718,8 +1864,12 @@
       <c r="F26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1">
+      <c r="I26" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1738,8 +1888,12 @@
       <c r="F27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1">
+      <c r="I27" s="15">
+        <f t="shared" si="0"/>
+        <v>293.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1758,8 +1912,12 @@
       <c r="F28" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1">
+      <c r="I28" s="15">
+        <f t="shared" si="0"/>
+        <v>3341.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1778,8 +1936,12 @@
       <c r="F29" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1">
+      <c r="I29" s="15">
+        <f t="shared" si="0"/>
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -1798,8 +1960,12 @@
       <c r="F30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1">
+      <c r="I30" s="15">
+        <f t="shared" si="0"/>
+        <v>3384.7999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
@@ -1818,8 +1984,16 @@
       <c r="F31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1">
+      <c r="I31" s="15">
+        <f t="shared" si="0"/>
+        <v>395.2</v>
+      </c>
+      <c r="J31">
+        <f>SUM(I26:I31)</f>
+        <v>13452.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1838,8 +2012,12 @@
       <c r="F32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1">
+      <c r="I32" s="15">
+        <f t="shared" ref="I32:I95" si="1">(E32+E31)*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="18" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
@@ -1858,8 +2036,12 @@
       <c r="F33" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1">
+      <c r="I33" s="15">
+        <f t="shared" si="1"/>
+        <v>539.20000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -1878,8 +2060,12 @@
       <c r="F34" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1">
+      <c r="I34" s="15">
+        <f t="shared" si="1"/>
+        <v>2701.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
@@ -1898,8 +2084,12 @@
       <c r="F35" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1">
+      <c r="I35" s="15">
+        <f t="shared" si="1"/>
+        <v>4329.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1918,8 +2108,12 @@
       <c r="F36" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1">
+      <c r="I36" s="15">
+        <f t="shared" si="1"/>
+        <v>3256.3999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
@@ -1938,8 +2132,16 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="I37" s="15">
+        <f t="shared" si="1"/>
+        <v>1089.2</v>
+      </c>
+      <c r="J37">
+        <f>SUM(I32:I37)</f>
+        <v>11915.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="18" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1958,8 +2160,12 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1">
+      <c r="I38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="18" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
@@ -1978,8 +2184,12 @@
       <c r="F39" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="I39" s="15">
+        <f t="shared" si="1"/>
+        <v>461.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -1998,8 +2208,12 @@
       <c r="F40" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1">
+      <c r="I40" s="15">
+        <f t="shared" si="1"/>
+        <v>2583.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" customHeight="1">
       <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
@@ -2018,8 +2232,12 @@
       <c r="F41" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1">
+      <c r="I41" s="15">
+        <f t="shared" si="1"/>
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2038,8 +2256,12 @@
       <c r="F42" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1">
+      <c r="I42" s="15">
+        <f t="shared" si="1"/>
+        <v>3164.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
       <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2058,8 +2280,16 @@
       <c r="F43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1">
+      <c r="I43" s="15">
+        <f t="shared" si="1"/>
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="J43">
+        <f>SUM(I38:I43)</f>
+        <v>11496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="18" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -2078,8 +2308,12 @@
       <c r="F44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1">
+      <c r="I44" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18" customHeight="1">
       <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
@@ -2098,8 +2332,12 @@
       <c r="F45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1">
+      <c r="I45" s="15">
+        <f t="shared" si="1"/>
+        <v>440.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="18" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -2118,8 +2356,12 @@
       <c r="F46" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1">
+      <c r="I46" s="15">
+        <f t="shared" si="1"/>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="18" customHeight="1">
       <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
@@ -2138,8 +2380,12 @@
       <c r="F47" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1">
+      <c r="I47" s="15">
+        <f t="shared" si="1"/>
+        <v>4472.3999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -2158,8 +2404,12 @@
       <c r="F48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1">
+      <c r="I48" s="15">
+        <f t="shared" si="1"/>
+        <v>2763.6000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1">
       <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
@@ -2178,8 +2428,16 @@
       <c r="F49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1">
+      <c r="I49" s="15">
+        <f t="shared" si="1"/>
+        <v>320.8</v>
+      </c>
+      <c r="J49">
+        <f>SUM(I44:I49)</f>
+        <v>10467.199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -2198,8 +2456,12 @@
       <c r="F50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1">
+      <c r="I50" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
@@ -2218,8 +2480,12 @@
       <c r="F51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1">
+      <c r="I51" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -2238,8 +2504,12 @@
       <c r="F52" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1">
+      <c r="I52" s="15">
+        <f t="shared" si="1"/>
+        <v>2199.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2258,8 +2528,12 @@
       <c r="F53" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1">
+      <c r="I53" s="15">
+        <f t="shared" si="1"/>
+        <v>3906.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -2278,8 +2552,12 @@
       <c r="F54" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1">
+      <c r="I54" s="15">
+        <f t="shared" si="1"/>
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>54</v>
       </c>
@@ -2298,8 +2576,16 @@
       <c r="F55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1">
+      <c r="I55" s="15">
+        <f t="shared" si="1"/>
+        <v>268.8</v>
+      </c>
+      <c r="J55">
+        <f>SUM(I50:I55)</f>
+        <v>8951.1999999999989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -2318,8 +2604,12 @@
       <c r="F56" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1">
+      <c r="I56" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
@@ -2338,8 +2628,12 @@
       <c r="F57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1">
+      <c r="I57" s="15">
+        <f t="shared" si="1"/>
+        <v>320.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -2358,8 +2652,12 @@
       <c r="F58" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1">
+      <c r="I58" s="15">
+        <f t="shared" si="1"/>
+        <v>2583.6000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>58</v>
       </c>
@@ -2378,8 +2676,12 @@
       <c r="F59" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1">
+      <c r="I59" s="15">
+        <f t="shared" si="1"/>
+        <v>5137.6000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -2398,8 +2700,12 @@
       <c r="F60" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1">
+      <c r="I60" s="15">
+        <f t="shared" si="1"/>
+        <v>3849.6000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
@@ -2418,8 +2724,16 @@
       <c r="F61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1">
+      <c r="I61" s="15">
+        <f t="shared" si="1"/>
+        <v>974.8</v>
+      </c>
+      <c r="J61">
+        <f>SUM(I56:I61)</f>
+        <v>12866.400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="18" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -2438,8 +2752,12 @@
       <c r="F62" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1">
+      <c r="I62" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
@@ -2458,8 +2776,12 @@
       <c r="F63" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1">
+      <c r="I63" s="15">
+        <f t="shared" si="1"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -2478,8 +2800,12 @@
       <c r="F64" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" customHeight="1">
+      <c r="I64" s="15">
+        <f t="shared" si="1"/>
+        <v>3017.2000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>64</v>
       </c>
@@ -2498,8 +2824,12 @@
       <c r="F65" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" customHeight="1">
+      <c r="I65" s="15">
+        <f t="shared" si="1"/>
+        <v>5604.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -2518,8 +2848,12 @@
       <c r="F66" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="18" customHeight="1">
+      <c r="I66" s="15">
+        <f t="shared" si="1"/>
+        <v>4141.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="18" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
@@ -2538,8 +2872,16 @@
       <c r="F67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1">
+      <c r="I67" s="15">
+        <f t="shared" si="1"/>
+        <v>1273.2</v>
+      </c>
+      <c r="J67">
+        <f>SUM(I62:I67)</f>
+        <v>14316.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="18" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -2558,8 +2900,12 @@
       <c r="F68" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="18" customHeight="1">
+      <c r="I68" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="18" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>68</v>
       </c>
@@ -2578,8 +2924,12 @@
       <c r="F69" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="18" customHeight="1">
+      <c r="I69" s="15">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="18" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -2598,8 +2948,12 @@
       <c r="F70" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1">
+      <c r="I70" s="15">
+        <f t="shared" si="1"/>
+        <v>2814.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
@@ -2618,8 +2972,12 @@
       <c r="F71" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1">
+      <c r="I71" s="15">
+        <f t="shared" si="1"/>
+        <v>5384.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="18" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -2638,8 +2996,12 @@
       <c r="F72" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" customHeight="1">
+      <c r="I72" s="15">
+        <f t="shared" si="1"/>
+        <v>3961.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
@@ -2658,8 +3020,16 @@
       <c r="F73" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="18" customHeight="1">
+      <c r="I73" s="15">
+        <f t="shared" si="1"/>
+        <v>1091.2</v>
+      </c>
+      <c r="J73">
+        <f>SUM(I68:I73)</f>
+        <v>13551.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -2678,8 +3048,12 @@
       <c r="F74" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="18" customHeight="1">
+      <c r="I74" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="18" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
@@ -2698,8 +3072,12 @@
       <c r="F75" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" customHeight="1">
+      <c r="I75" s="15">
+        <f t="shared" si="1"/>
+        <v>584.79999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="18" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -2718,8 +3096,12 @@
       <c r="F76" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="18" customHeight="1">
+      <c r="I76" s="15">
+        <f t="shared" si="1"/>
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="18" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
@@ -2738,8 +3120,12 @@
       <c r="F77" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" customHeight="1">
+      <c r="I77" s="15">
+        <f t="shared" si="1"/>
+        <v>4405.6000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="18" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -2758,8 +3144,12 @@
       <c r="F78" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" customHeight="1">
+      <c r="I78" s="15">
+        <f t="shared" si="1"/>
+        <v>3347.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="18" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>78</v>
       </c>
@@ -2778,8 +3168,16 @@
       <c r="F79" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" customHeight="1">
+      <c r="I79" s="15">
+        <f t="shared" si="1"/>
+        <v>1134.8</v>
+      </c>
+      <c r="J79">
+        <f>SUM(I74:I79)</f>
+        <v>12250.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="18" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -2798,8 +3196,12 @@
       <c r="F80" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" customHeight="1">
+      <c r="I80" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
@@ -2818,8 +3220,12 @@
       <c r="F81" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" customHeight="1">
+      <c r="I81" s="15">
+        <f t="shared" si="1"/>
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="18" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -2838,8 +3244,12 @@
       <c r="F82" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1">
+      <c r="I82" s="15">
+        <f t="shared" si="1"/>
+        <v>553.19999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="18" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
@@ -2858,8 +3268,12 @@
       <c r="F83" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" customHeight="1">
+      <c r="I83" s="15">
+        <f t="shared" si="1"/>
+        <v>1301.1999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="18" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -2878,8 +3292,12 @@
       <c r="F84" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" customHeight="1">
+      <c r="I84" s="15">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="18" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>84</v>
       </c>
@@ -2898,8 +3316,16 @@
       <c r="F85" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" customHeight="1">
+      <c r="I85" s="15">
+        <f t="shared" si="1"/>
+        <v>267.2</v>
+      </c>
+      <c r="J85">
+        <f>SUM(I80:I85)</f>
+        <v>3306.3999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="18" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -2918,8 +3344,12 @@
       <c r="F86" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="18" customHeight="1">
+      <c r="I86" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="18" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>86</v>
       </c>
@@ -2938,8 +3368,12 @@
       <c r="F87" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1">
+      <c r="I87" s="15">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="18" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -2958,8 +3392,12 @@
       <c r="F88" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" customHeight="1">
+      <c r="I88" s="15">
+        <f t="shared" si="1"/>
+        <v>1332.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="18" customHeight="1">
       <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
@@ -2978,8 +3416,12 @@
       <c r="F89" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="18" customHeight="1">
+      <c r="I89" s="15">
+        <f t="shared" si="1"/>
+        <v>3978.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="18" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -2998,8 +3440,12 @@
       <c r="F90" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="18" customHeight="1">
+      <c r="I90" s="15">
+        <f t="shared" si="1"/>
+        <v>3884.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="18" customHeight="1">
       <c r="A91" s="7" t="s">
         <v>90</v>
       </c>
@@ -3018,8 +3464,16 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" customHeight="1">
+      <c r="I91" s="15">
+        <f t="shared" si="1"/>
+        <v>1082.4000000000001</v>
+      </c>
+      <c r="J91">
+        <f>SUM(I86:I91)</f>
+        <v>10433.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="18" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -3038,8 +3492,12 @@
       <c r="F92" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" customHeight="1">
+      <c r="I92" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="18" customHeight="1">
       <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
@@ -3058,8 +3516,12 @@
       <c r="F93" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1">
+      <c r="I93" s="15">
+        <f t="shared" si="1"/>
+        <v>284.39999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -3078,8 +3540,12 @@
       <c r="F94" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" customHeight="1">
+      <c r="I94" s="15">
+        <f t="shared" si="1"/>
+        <v>2543.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18" customHeight="1">
       <c r="A95" s="7" t="s">
         <v>94</v>
       </c>
@@ -3098,8 +3564,12 @@
       <c r="F95" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" customHeight="1">
+      <c r="I95" s="15">
+        <f t="shared" si="1"/>
+        <v>4697.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -3118,8 +3588,12 @@
       <c r="F96" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" customHeight="1">
+      <c r="I96" s="15">
+        <f t="shared" ref="I96:I159" si="2">(E96+E95)*4</f>
+        <v>3369.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="18" customHeight="1">
       <c r="A97" s="7" t="s">
         <v>96</v>
       </c>
@@ -3138,8 +3612,16 @@
       <c r="F97" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" customHeight="1">
+      <c r="I97" s="15">
+        <f t="shared" si="2"/>
+        <v>931.6</v>
+      </c>
+      <c r="J97">
+        <f>SUM(I92:I97)</f>
+        <v>11826.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="18" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -3158,8 +3640,12 @@
       <c r="F98" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="18" customHeight="1">
+      <c r="I98" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="18" customHeight="1">
       <c r="A99" s="7" t="s">
         <v>98</v>
       </c>
@@ -3178,8 +3664,12 @@
       <c r="F99" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="18" customHeight="1">
+      <c r="I99" s="15">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="18" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -3198,8 +3688,12 @@
       <c r="F100" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="18" customHeight="1">
+      <c r="I100" s="15">
+        <f t="shared" si="2"/>
+        <v>2401.1999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="18" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
@@ -3218,8 +3712,12 @@
       <c r="F101" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1">
+      <c r="I101" s="15">
+        <f t="shared" si="2"/>
+        <v>3761.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="18" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -3238,8 +3736,12 @@
       <c r="F102" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" customHeight="1">
+      <c r="I102" s="15">
+        <f t="shared" si="2"/>
+        <v>2176.8000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>102</v>
       </c>
@@ -3258,8 +3760,16 @@
       <c r="F103" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="18" customHeight="1">
+      <c r="I103" s="15">
+        <f t="shared" si="2"/>
+        <v>478.4</v>
+      </c>
+      <c r="J103">
+        <f>SUM(I98:I103)</f>
+        <v>9155.9999999999982</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -3278,8 +3788,12 @@
       <c r="F104" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" customHeight="1">
+      <c r="I104" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="18" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>104</v>
       </c>
@@ -3298,8 +3812,12 @@
       <c r="F105" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" customHeight="1">
+      <c r="I105" s="15">
+        <f t="shared" si="2"/>
+        <v>254.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="18" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -3318,8 +3836,12 @@
       <c r="F106" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" customHeight="1">
+      <c r="I106" s="15">
+        <f t="shared" si="2"/>
+        <v>2114.8000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="18" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>106</v>
       </c>
@@ -3338,8 +3860,12 @@
       <c r="F107" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" customHeight="1">
+      <c r="I107" s="15">
+        <f t="shared" si="2"/>
+        <v>3752.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="18" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -3358,8 +3884,12 @@
       <c r="F108" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="18" customHeight="1">
+      <c r="I108" s="15">
+        <f t="shared" si="2"/>
+        <v>2749.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="18" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>108</v>
       </c>
@@ -3378,8 +3908,16 @@
       <c r="F109" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" customHeight="1">
+      <c r="I109" s="15">
+        <f t="shared" si="2"/>
+        <v>856.8</v>
+      </c>
+      <c r="J109">
+        <f>SUM(I104:I109)</f>
+        <v>9728.7999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="18" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -3398,8 +3936,12 @@
       <c r="F110" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1">
+      <c r="I110" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="18" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>110</v>
       </c>
@@ -3418,8 +3960,12 @@
       <c r="F111" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="18" customHeight="1">
+      <c r="I111" s="15">
+        <f t="shared" si="2"/>
+        <v>400.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -3438,8 +3984,12 @@
       <c r="F112" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="18" customHeight="1">
+      <c r="I112" s="15">
+        <f t="shared" si="2"/>
+        <v>2194.8000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="18" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
@@ -3458,8 +4008,12 @@
       <c r="F113" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="18" customHeight="1">
+      <c r="I113" s="15">
+        <f t="shared" si="2"/>
+        <v>3660.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="18" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -3478,8 +4032,12 @@
       <c r="F114" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="18" customHeight="1">
+      <c r="I114" s="15">
+        <f t="shared" si="2"/>
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="18" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>114</v>
       </c>
@@ -3498,8 +4056,16 @@
       <c r="F115" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="18" customHeight="1">
+      <c r="I115" s="15">
+        <f t="shared" si="2"/>
+        <v>817.2</v>
+      </c>
+      <c r="J115">
+        <f>SUM(I110:I115)</f>
+        <v>9757.6000000000022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="18" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -3518,8 +4084,12 @@
       <c r="F116" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="18" customHeight="1">
+      <c r="I116" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="18" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>116</v>
       </c>
@@ -3538,8 +4108,12 @@
       <c r="F117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="18" customHeight="1">
+      <c r="I117" s="15">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="18" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -3558,8 +4132,12 @@
       <c r="F118" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="18" customHeight="1">
+      <c r="I118" s="15">
+        <f t="shared" si="2"/>
+        <v>1269.5999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="18" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>118</v>
       </c>
@@ -3578,8 +4156,12 @@
       <c r="F119" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1">
+      <c r="I119" s="15">
+        <f t="shared" si="2"/>
+        <v>2583.1999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="18" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -3598,8 +4180,12 @@
       <c r="F120" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="18" customHeight="1">
+      <c r="I120" s="15">
+        <f t="shared" si="2"/>
+        <v>2392.3999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>120</v>
       </c>
@@ -3618,8 +4204,16 @@
       <c r="F121" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" customHeight="1">
+      <c r="I121" s="15">
+        <f t="shared" si="2"/>
+        <v>740.8</v>
+      </c>
+      <c r="J121">
+        <f>SUM(I116:I121)</f>
+        <v>7323.9999999999991</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="18" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -3638,8 +4232,12 @@
       <c r="F122" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="18" customHeight="1">
+      <c r="I122" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="18" customHeight="1">
       <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
@@ -3658,8 +4256,12 @@
       <c r="F123" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" customHeight="1">
+      <c r="I123" s="15">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="18" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -3678,8 +4280,12 @@
       <c r="F124" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="18" customHeight="1">
+      <c r="I124" s="15">
+        <f t="shared" si="2"/>
+        <v>2000.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="7" t="s">
         <v>124</v>
       </c>
@@ -3698,8 +4304,12 @@
       <c r="F125" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" customHeight="1">
+      <c r="I125" s="15">
+        <f t="shared" si="2"/>
+        <v>3690.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="18" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -3718,8 +4328,12 @@
       <c r="F126" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="18" customHeight="1">
+      <c r="I126" s="15">
+        <f t="shared" si="2"/>
+        <v>2753.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="18" customHeight="1">
       <c r="A127" s="7" t="s">
         <v>126</v>
       </c>
@@ -3738,8 +4352,16 @@
       <c r="F127" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="18" customHeight="1">
+      <c r="I127" s="15">
+        <f t="shared" si="2"/>
+        <v>801.6</v>
+      </c>
+      <c r="J127">
+        <f>SUM(I122:I127)</f>
+        <v>9508.8000000000011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="18" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -3758,8 +4380,12 @@
       <c r="F128" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" customHeight="1">
+      <c r="I128" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="18" customHeight="1">
       <c r="A129" s="7" t="s">
         <v>128</v>
       </c>
@@ -3778,8 +4404,12 @@
       <c r="F129" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="18" customHeight="1">
+      <c r="I129" s="15">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="18" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -3798,8 +4428,12 @@
       <c r="F130" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" customHeight="1">
+      <c r="I130" s="15">
+        <f t="shared" si="2"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="18" customHeight="1">
       <c r="A131" s="7" t="s">
         <v>130</v>
       </c>
@@ -3818,8 +4452,12 @@
       <c r="F131" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" customHeight="1">
+      <c r="I131" s="15">
+        <f t="shared" si="2"/>
+        <v>1266.4000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="18" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -3838,8 +4476,12 @@
       <c r="F132" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="18" customHeight="1">
+      <c r="I132" s="15">
+        <f t="shared" si="2"/>
+        <v>1044.4000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="18" customHeight="1">
       <c r="A133" s="7" t="s">
         <v>132</v>
       </c>
@@ -3858,8 +4500,16 @@
       <c r="F133" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" customHeight="1">
+      <c r="I133" s="15">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="J133">
+        <f>SUM(I128:I133)</f>
+        <v>3444.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="18" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -3878,8 +4528,12 @@
       <c r="F134" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="18" customHeight="1">
+      <c r="I134" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="18" customHeight="1">
       <c r="A135" s="7" t="s">
         <v>134</v>
       </c>
@@ -3898,8 +4552,12 @@
       <c r="F135" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" customHeight="1">
+      <c r="I135" s="15">
+        <f t="shared" si="2"/>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="18" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -3918,8 +4576,12 @@
       <c r="F136" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" customHeight="1">
+      <c r="I136" s="15">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="18" customHeight="1">
       <c r="A137" s="7" t="s">
         <v>136</v>
       </c>
@@ -3938,8 +4600,12 @@
       <c r="F137" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" customHeight="1">
+      <c r="I137" s="15">
+        <f t="shared" si="2"/>
+        <v>1077.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="18" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -3958,8 +4624,12 @@
       <c r="F138" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" customHeight="1">
+      <c r="I138" s="15">
+        <f t="shared" si="2"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="18" customHeight="1">
       <c r="A139" s="7" t="s">
         <v>138</v>
       </c>
@@ -3978,8 +4648,16 @@
       <c r="F139" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="18" customHeight="1">
+      <c r="I139" s="15">
+        <f t="shared" si="2"/>
+        <v>86.4</v>
+      </c>
+      <c r="J139">
+        <f>SUM(I134:I139)</f>
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="18" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -3998,8 +4676,12 @@
       <c r="F140" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" customHeight="1">
+      <c r="I140" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="18" customHeight="1">
       <c r="A141" s="7" t="s">
         <v>140</v>
       </c>
@@ -4018,8 +4700,12 @@
       <c r="F141" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="18" customHeight="1">
+      <c r="I141" s="15">
+        <f t="shared" si="2"/>
+        <v>305.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="18" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -4038,8 +4724,12 @@
       <c r="F142" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="18" customHeight="1">
+      <c r="I142" s="15">
+        <f t="shared" si="2"/>
+        <v>1604.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="18" customHeight="1">
       <c r="A143" s="7" t="s">
         <v>142</v>
       </c>
@@ -4058,8 +4748,12 @@
       <c r="F143" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" customHeight="1">
+      <c r="I143" s="15">
+        <f t="shared" si="2"/>
+        <v>3784.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="18" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -4078,8 +4772,12 @@
       <c r="F144" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="18" customHeight="1">
+      <c r="I144" s="15">
+        <f t="shared" si="2"/>
+        <v>2947.6000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="18" customHeight="1">
       <c r="A145" s="7" t="s">
         <v>144</v>
       </c>
@@ -4098,8 +4796,16 @@
       <c r="F145" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" customHeight="1">
+      <c r="I145" s="15">
+        <f t="shared" si="2"/>
+        <v>462.8</v>
+      </c>
+      <c r="J145">
+        <f>SUM(I140:I145)</f>
+        <v>9104.7999999999993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="18" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -4118,8 +4824,12 @@
       <c r="F146" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="18" customHeight="1">
+      <c r="I146" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="18" customHeight="1">
       <c r="A147" s="7" t="s">
         <v>146</v>
       </c>
@@ -4138,8 +4848,12 @@
       <c r="F147" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="18" customHeight="1">
+      <c r="I147" s="15">
+        <f t="shared" si="2"/>
+        <v>294.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="18" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -4158,8 +4872,12 @@
       <c r="F148" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="18" customHeight="1">
+      <c r="I148" s="15">
+        <f t="shared" si="2"/>
+        <v>2901.2000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="18" customHeight="1">
       <c r="A149" s="7" t="s">
         <v>148</v>
       </c>
@@ -4178,8 +4896,12 @@
       <c r="F149" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="18" customHeight="1">
+      <c r="I149" s="15">
+        <f t="shared" si="2"/>
+        <v>4183.6000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="18" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4198,8 +4920,12 @@
       <c r="F150" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="18" customHeight="1">
+      <c r="I150" s="15">
+        <f t="shared" si="2"/>
+        <v>1958.8000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="18" customHeight="1">
       <c r="A151" s="7" t="s">
         <v>150</v>
       </c>
@@ -4218,8 +4944,16 @@
       <c r="F151" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" customHeight="1">
+      <c r="I151" s="15">
+        <f t="shared" si="2"/>
+        <v>381.6</v>
+      </c>
+      <c r="J151">
+        <f>SUM(I146:I151)</f>
+        <v>9720.0000000000018</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="18" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -4238,8 +4972,12 @@
       <c r="F152" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="18" customHeight="1">
+      <c r="I152" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="18" customHeight="1">
       <c r="A153" s="7" t="s">
         <v>152</v>
       </c>
@@ -4258,8 +4996,12 @@
       <c r="F153" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="18" customHeight="1">
+      <c r="I153" s="15">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="18" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -4278,8 +5020,12 @@
       <c r="F154" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="18" customHeight="1">
+      <c r="I154" s="15">
+        <f t="shared" si="2"/>
+        <v>1302.4000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="18" customHeight="1">
       <c r="A155" s="7" t="s">
         <v>154</v>
       </c>
@@ -4298,8 +5044,12 @@
       <c r="F155" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="18" customHeight="1">
+      <c r="I155" s="15">
+        <f t="shared" si="2"/>
+        <v>2818.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="18" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -4318,8 +5068,12 @@
       <c r="F156" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="18" customHeight="1">
+      <c r="I156" s="15">
+        <f t="shared" si="2"/>
+        <v>2208.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="18" customHeight="1">
       <c r="A157" s="7" t="s">
         <v>156</v>
       </c>
@@ -4338,8 +5092,16 @@
       <c r="F157" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="18" customHeight="1">
+      <c r="I157" s="15">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="J157">
+        <f>SUM(I152:I157)</f>
+        <v>7021.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="18" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -4358,8 +5120,12 @@
       <c r="F158" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="18" customHeight="1">
+      <c r="I158" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="18" customHeight="1">
       <c r="A159" s="7" t="s">
         <v>158</v>
       </c>
@@ -4378,8 +5144,12 @@
       <c r="F159" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="18" customHeight="1">
+      <c r="I159" s="15">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="18" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -4398,8 +5168,12 @@
       <c r="F160" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="18" customHeight="1">
+      <c r="I160" s="15">
+        <f t="shared" ref="I160:I181" si="3">(E160+E159)*4</f>
+        <v>2368.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="18" customHeight="1">
       <c r="A161" s="7" t="s">
         <v>160</v>
       </c>
@@ -4418,8 +5192,12 @@
       <c r="F161" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="18" customHeight="1">
+      <c r="I161" s="15">
+        <f t="shared" si="3"/>
+        <v>4117.2000000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="18" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -4438,8 +5216,12 @@
       <c r="F162" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="18" customHeight="1">
+      <c r="I162" s="15">
+        <f t="shared" si="3"/>
+        <v>2467.2000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="18" customHeight="1">
       <c r="A163" s="7" t="s">
         <v>162</v>
       </c>
@@ -4458,8 +5240,16 @@
       <c r="F163" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="18" customHeight="1">
+      <c r="I163" s="15">
+        <f t="shared" si="3"/>
+        <v>416.4</v>
+      </c>
+      <c r="J163">
+        <f>SUM(I158:I163)</f>
+        <v>9671.2000000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="18" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -4478,8 +5268,12 @@
       <c r="F164" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="18" customHeight="1">
+      <c r="I164" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="18" customHeight="1">
       <c r="A165" s="7" t="s">
         <v>164</v>
       </c>
@@ -4498,8 +5292,12 @@
       <c r="F165" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="18" customHeight="1">
+      <c r="I165" s="15">
+        <f t="shared" si="3"/>
+        <v>216.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="18" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -4518,8 +5316,12 @@
       <c r="F166" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="18" customHeight="1">
+      <c r="I166" s="15">
+        <f t="shared" si="3"/>
+        <v>1222.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="18" customHeight="1">
       <c r="A167" s="7" t="s">
         <v>166</v>
       </c>
@@ -4538,8 +5340,12 @@
       <c r="F167" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="18" customHeight="1">
+      <c r="I167" s="15">
+        <f t="shared" si="3"/>
+        <v>2052.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="18" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -4558,8 +5364,12 @@
       <c r="F168" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="18" customHeight="1">
+      <c r="I168" s="15">
+        <f t="shared" si="3"/>
+        <v>1282.4000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="18" customHeight="1">
       <c r="A169" s="7" t="s">
         <v>168</v>
       </c>
@@ -4578,8 +5388,16 @@
       <c r="F169" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="18" customHeight="1">
+      <c r="I169" s="15">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="J169">
+        <f>SUM(I164:I169)</f>
+        <v>5010.3999999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="18" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -4598,8 +5416,12 @@
       <c r="F170" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="18" customHeight="1">
+      <c r="I170" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="18" customHeight="1">
       <c r="A171" s="7" t="s">
         <v>170</v>
       </c>
@@ -4618,8 +5440,12 @@
       <c r="F171" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="18" customHeight="1">
+      <c r="I171" s="15">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="18" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -4638,8 +5464,12 @@
       <c r="F172" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="18" customHeight="1">
+      <c r="I172" s="15">
+        <f t="shared" si="3"/>
+        <v>1238.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="18" customHeight="1">
       <c r="A173" s="7" t="s">
         <v>172</v>
       </c>
@@ -4658,8 +5488,12 @@
       <c r="F173" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="18" customHeight="1">
+      <c r="I173" s="15">
+        <f t="shared" si="3"/>
+        <v>2692.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="18" customHeight="1">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -4678,8 +5512,12 @@
       <c r="F174" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="18" customHeight="1">
+      <c r="I174" s="15">
+        <f t="shared" si="3"/>
+        <v>2465.1999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="18" customHeight="1">
       <c r="A175" s="7" t="s">
         <v>174</v>
       </c>
@@ -4698,8 +5536,16 @@
       <c r="F175" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="18" customHeight="1">
+      <c r="I175" s="15">
+        <f t="shared" si="3"/>
+        <v>749.2</v>
+      </c>
+      <c r="J175">
+        <f>SUM(I170:I175)</f>
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="18" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -4718,8 +5564,12 @@
       <c r="F176" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1">
+      <c r="I176" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="18" customHeight="1">
       <c r="A177" s="7" t="s">
         <v>176</v>
       </c>
@@ -4738,8 +5588,12 @@
       <c r="F177" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="18" customHeight="1">
+      <c r="I177" s="15">
+        <f t="shared" si="3"/>
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="18" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -4758,8 +5612,12 @@
       <c r="F178" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="18" customHeight="1">
+      <c r="I178" s="15">
+        <f t="shared" si="3"/>
+        <v>391.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="18" customHeight="1">
       <c r="A179" s="7" t="s">
         <v>178</v>
       </c>
@@ -4778,8 +5636,12 @@
       <c r="F179" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="18" customHeight="1">
+      <c r="I179" s="15">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="18" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -4798,8 +5660,12 @@
       <c r="F180" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="18" customHeight="1">
+      <c r="I180" s="15">
+        <f t="shared" si="3"/>
+        <v>683.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="18" customHeight="1">
       <c r="A181" s="10" t="s">
         <v>180</v>
       </c>
@@ -4817,6 +5683,26 @@
       </c>
       <c r="F181" s="12">
         <v>0</v>
+      </c>
+      <c r="I181" s="15">
+        <f t="shared" si="3"/>
+        <v>199.2</v>
+      </c>
+      <c r="J181">
+        <f>SUM(I176:I181)</f>
+        <v>2149.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="J183" s="17">
+        <f>SUM(J181,J175,J169,J163,J157,J151,J145,J139,J133,J127,J121,J115,J109,J103,J97,J91,J85,J79,J73,J67,J61,J55,J49,J43,J37,J31,J25,J19,J13,J7)</f>
+        <v>266536.00000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="J184" s="17">
+        <f>J183/1000</f>
+        <v>266.53600000000006</v>
       </c>
     </row>
   </sheetData>
